--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 11 (2,)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(2,)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 11 (2,)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(2,)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 10</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,10 +426,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -435,15 +441,18 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.002283277089532115</v>
+        <v>0.002283603560167111</v>
       </c>
       <c r="E2">
-        <v>0.002283277089532115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.002283603560167111</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -454,10 +463,13 @@
       <c r="E3">
         <v>0.4711603917272211</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -469,15 +481,18 @@
         <v>0.5033430676031282</v>
       </c>
       <c r="F4">
-        <v>0.4464038610458374</v>
+        <v>0.4464040696620941</v>
       </c>
       <c r="G4">
         <v>0.6666666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -491,10 +506,13 @@
       <c r="E5">
         <v>8.274714015198612E-12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -505,10 +523,13 @@
       <c r="E6">
         <v>0.4711603917272211</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -524,6 +545,9 @@
       </c>
       <c r="G7">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
